--- a/all_DE/Hans-Werner Sinn.xlsx
+++ b/all_DE/Hans-Werner Sinn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaerlacher/Documents/GitHub/COINS_SwissTribeleaders/Data Collection/Persons/Hans-Werner Sinn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\all_DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A392BD78-8AE7-4548-8FB5-6AE94F66D39E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F7DA38-5F4C-409F-B25D-B87E8697B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="398">
   <si>
     <t>title</t>
   </si>
@@ -1476,9 +1476,6 @@
 Endlich von der drückenden Grundlast befreitIn der vergangenen Woche erklärte Frau Kotting-Uhl im Bundestag, wie das künftig mit dem Sonntagsfahrer läuft.
 Auch am beschrankten Bahnübergang könnte es für den einen oder anderen Passanten angebotsorientiert überraschend dunkel werden.
 Und der Herr wurde auch einen halben Tag später angeliefert, als er eigentlich gebraucht wurde.</t>
-  </si>
-  <si>
-    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -1549,14 +1546,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1838,15 +1834,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1871,11 +1867,8 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1900,11 +1893,8 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1929,11 +1919,8 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1958,11 +1945,8 @@
       <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1987,11 +1971,8 @@
       <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -2016,11 +1997,8 @@
       <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -2045,11 +2023,8 @@
       <c r="I7" t="s">
         <v>45</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -2074,11 +2049,8 @@
       <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -2103,11 +2075,8 @@
       <c r="I9" t="s">
         <v>56</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>13</v>
       </c>
@@ -2132,11 +2101,8 @@
       <c r="I10" t="s">
         <v>39</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -2161,11 +2127,8 @@
       <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -2190,11 +2153,8 @@
       <c r="I12" t="s">
         <v>72</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -2219,11 +2179,8 @@
       <c r="I13" t="s">
         <v>78</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -2248,11 +2205,8 @@
       <c r="I14" t="s">
         <v>84</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -2277,11 +2231,8 @@
       <c r="I15" t="s">
         <v>91</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>21</v>
       </c>
@@ -2306,11 +2257,8 @@
       <c r="I16" t="s">
         <v>97</v>
       </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>22</v>
       </c>
@@ -2335,11 +2283,8 @@
       <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>23</v>
       </c>
@@ -2364,11 +2309,8 @@
       <c r="I18" t="s">
         <v>108</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>24</v>
       </c>
@@ -2393,11 +2335,8 @@
       <c r="I19" t="s">
         <v>114</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30</v>
       </c>
@@ -2419,11 +2358,8 @@
       <c r="H20" t="s">
         <v>13</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -2448,11 +2384,8 @@
       <c r="I21" t="s">
         <v>125</v>
       </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>32</v>
       </c>
@@ -2477,11 +2410,8 @@
       <c r="I22" t="s">
         <v>131</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>33</v>
       </c>
@@ -2506,11 +2436,8 @@
       <c r="I23" t="s">
         <v>137</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>34</v>
       </c>
@@ -2536,7 +2463,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>35</v>
       </c>
@@ -2562,7 +2489,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37</v>
       </c>
@@ -2588,7 +2515,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40</v>
       </c>
@@ -2614,7 +2541,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41</v>
       </c>
@@ -2640,7 +2567,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42</v>
       </c>
@@ -2666,7 +2593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43</v>
       </c>
@@ -2692,7 +2619,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44</v>
       </c>
@@ -2718,7 +2645,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45</v>
       </c>
@@ -2744,7 +2671,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46</v>
       </c>
@@ -2770,7 +2697,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>47</v>
       </c>
@@ -2796,7 +2723,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>48</v>
       </c>
@@ -2822,7 +2749,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>49</v>
       </c>
@@ -2848,7 +2775,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>50</v>
       </c>
@@ -2874,7 +2801,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>51</v>
       </c>
@@ -2900,7 +2827,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>52</v>
       </c>
@@ -2926,7 +2853,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>53</v>
       </c>
@@ -2952,7 +2879,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>54</v>
       </c>
@@ -2978,7 +2905,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>55</v>
       </c>
@@ -3004,7 +2931,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>56</v>
       </c>
@@ -3030,7 +2957,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>57</v>
       </c>
@@ -3056,7 +2983,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>58</v>
       </c>
@@ -3082,7 +3009,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>59</v>
       </c>
@@ -3108,7 +3035,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>60</v>
       </c>
@@ -3134,7 +3061,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>61</v>
       </c>
@@ -3160,7 +3087,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>62</v>
       </c>
@@ -3186,7 +3113,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -3212,7 +3139,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -3238,7 +3165,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>65</v>
       </c>
@@ -3264,7 +3191,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>66</v>
       </c>
@@ -3290,7 +3217,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>67</v>
       </c>
@@ -3313,7 +3240,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>68</v>
       </c>
@@ -3339,7 +3266,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>69</v>
       </c>
@@ -3365,7 +3292,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>70</v>
       </c>
@@ -3391,7 +3318,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>71</v>
       </c>
@@ -3417,7 +3344,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>72</v>
       </c>
@@ -3443,7 +3370,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>73</v>
       </c>
@@ -3469,7 +3396,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>74</v>
       </c>
@@ -3492,7 +3419,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>75</v>
       </c>
@@ -3518,7 +3445,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>76</v>
       </c>
@@ -3544,7 +3471,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>77</v>
       </c>
@@ -3567,7 +3494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>78</v>
       </c>
@@ -3593,7 +3520,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>79</v>
       </c>
@@ -3619,7 +3546,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>80</v>
       </c>
@@ -3648,7 +3575,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>81</v>
       </c>
@@ -3677,7 +3604,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>82</v>
       </c>
@@ -3700,7 +3627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>83</v>
       </c>
@@ -3729,7 +3656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>84</v>
       </c>
@@ -3758,7 +3685,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>85</v>
       </c>
@@ -3787,7 +3714,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>86</v>
       </c>
@@ -3816,7 +3743,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>87</v>
       </c>
@@ -3845,7 +3772,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>88</v>
       </c>
@@ -3874,7 +3801,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>89</v>
       </c>
